--- a/WordListWaitRead.xlsx
+++ b/WordListWaitRead.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="1" r:id="rId1"/>
@@ -170,11 +170,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>朗读分组 10/组</t>
+    <t>keyboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>jevelina</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>朗读序号</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -645,7 +645,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.4" x14ac:dyDescent="0.25">
@@ -758,9 +758,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -798,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="str">
         <f>IF(AND(LEN(B3)=0,COUNTA(B4:$B$1000)),"朗读区域内出现空值","")</f>
